--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5404477_ad_unsw_edu_au/Documents/04_Workspace/2. WIP/to Github/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5404477\Documents\PyNNLF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10485A89DA4A425ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEF5F80-790E-4A85-B0D9-7C3523267648}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09639EC9-5226-40EE-AEB0-4E2D3777420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="8966" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>The cloud data has a continuous value from 0 to 100. 0 means no cloud, 100 means completely cloudy.</t>
+  </si>
+  <si>
+    <t>12weeks of Ausgrid Solar Home Data (see ds1)</t>
+  </si>
+  <si>
+    <t>12 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just used for testing. 12 weeks is the minimum size of a dataset to be used in this framework. </t>
+  </si>
+  <si>
+    <t>ds0_test</t>
   </si>
 </sst>
 </file>
@@ -246,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0AC41CFD-BE4C-4469-A375-569568B3D7FF}" name="name"/>
     <tableColumn id="2" xr3:uid="{F58FFEFF-0AFF-41A1-B30B-DE149B39B65A}" name="description"/>
@@ -526,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -573,10 +585,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -588,47 +600,47 @@
         <v>40360</v>
       </c>
       <c r="F2" s="1">
-        <v>41455</v>
+        <v>40444</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>44378</v>
+        <v>40360</v>
       </c>
       <c r="F3" s="1">
-        <v>45473</v>
+        <v>41455</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -649,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -657,22 +669,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>40360</v>
+        <v>44378</v>
       </c>
       <c r="F5" s="1">
-        <v>41455</v>
+        <v>45473</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -680,25 +692,28 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>44378</v>
+        <v>40360</v>
       </c>
       <c r="F6" s="1">
-        <v>45473</v>
+        <v>41455</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -706,19 +721,16 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -733,15 +745,15 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -762,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -770,13 +782,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -794,18 +806,18 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -820,15 +832,15 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -849,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -857,13 +869,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -881,50 +893,50 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
-        <v>40360</v>
+        <v>44378</v>
       </c>
       <c r="F13" s="1">
-        <v>41455</v>
+        <v>45473</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>40360</v>
@@ -939,6 +951,35 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40360</v>
+      </c>
+      <c r="F15" s="1">
+        <v>41455</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5404477\Documents\PyNNLF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09639EC9-5226-40EE-AEB0-4E2D3777420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAE1F5-5FB1-48C2-843B-5139FEE35D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5404477\Documents\PyNNLF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DAE1F5-5FB1-48C2-843B-5139FEE35D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FADC05-83FC-4259-B86C-8BF204216786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -195,16 +195,48 @@
   </si>
   <si>
     <t>ds0_test</t>
+  </si>
+  <si>
+    <t>ds14_ausgrid_zs_mascot</t>
+  </si>
+  <si>
+    <t>Ausgrid Zone Substation Data Mascot 33_11kV from FY2006 to FY2024</t>
+  </si>
+  <si>
+    <t>19 years</t>
+  </si>
+  <si>
+    <t>15 minute</t>
+  </si>
+  <si>
+    <t>https://www.ausgrid.com.au/Industry/Our-Research/Data-to-share/Distribution-zone-substation-data</t>
+  </si>
+  <si>
+    <t>ds15_ausgrid_zs_mascot_30min_with_weather</t>
+  </si>
+  <si>
+    <t>ds14 but converted to 30-minutely, added with BOM weather data, and filtered to 3 years</t>
+  </si>
+  <si>
+    <t>Use Sydney Airport weather data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,14 +259,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -258,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{0C147F41-EE5B-49BB-8BD7-D0A566A629F0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0AC41CFD-BE4C-4469-A375-569568B3D7FF}" name="name"/>
     <tableColumn id="2" xr3:uid="{F58FFEFF-0AFF-41A1-B30B-DE149B39B65A}" name="description"/>
@@ -538,17 +573,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38.3515625" customWidth="1"/>
-    <col min="2" max="2" width="65.8203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8203125" customWidth="1"/>
+    <col min="2" max="2" width="107.76171875" customWidth="1"/>
+    <col min="3" max="3" width="67.52734375" customWidth="1"/>
     <col min="5" max="5" width="10.29296875" customWidth="1"/>
     <col min="6" max="6" width="9.703125" customWidth="1"/>
     <col min="9" max="9" width="100.9375" bestFit="1" customWidth="1"/>
@@ -983,10 +1018,71 @@
         <v>48</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38473</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{DEE855BE-FD64-4A90-8404-918F524DE7CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>